--- a/data_experiments/FNR_rvoll_o2x.xlsx
+++ b/data_experiments/FNR_rvoll_o2x.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floodlight\ft_Regulation_Katrin\data_experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630CEA9-B1F5-4D3D-86F7-3A54DA71FF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -331,8 +348,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,15 +408,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +498,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +550,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,14 +743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -737,8 +800,16 @@
       <c r="H2">
         <v>9.789458863898286</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2">
+        <f>E2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>H2/F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -752,19 +823,27 @@
         <v>1.355214043735131</v>
       </c>
       <c r="E3">
-        <v>2.327435930576055</v>
+        <v>2.3274359305760548</v>
       </c>
       <c r="F3">
         <v>17.80467421793529</v>
       </c>
       <c r="G3">
-        <v>13.13790563213431</v>
+        <v>13.137905632134309</v>
       </c>
       <c r="H3">
-        <v>30.57763362074691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>30.577633620746909</v>
+      </c>
+      <c r="K3">
+        <f>E3/D3</f>
+        <v>1.7173936038630213</v>
+      </c>
+      <c r="L3">
+        <f>H3/F3</f>
+        <v>1.7173936038630213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -781,16 +860,24 @@
         <v>0.995</v>
       </c>
       <c r="F4">
-        <v>9.956609095304261</v>
+        <v>9.9566090953042607</v>
       </c>
       <c r="G4">
-        <v>10.00664230683845</v>
+        <v>10.006642306838449</v>
       </c>
       <c r="H4">
-        <v>9.956609095304261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>9.9566090953042607</v>
+      </c>
+      <c r="K4">
+        <f>E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>H4/F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +888,30 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3.686</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="E5">
-        <v>3.686</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="F5">
-        <v>-19.4373363807186</v>
+        <v>-19.437336380718602</v>
       </c>
       <c r="G5">
-        <v>-5.273287135300759</v>
+        <v>-5.2732871353007589</v>
       </c>
       <c r="H5">
-        <v>-19.4373363807186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-19.437336380718602</v>
+      </c>
+      <c r="K5">
+        <f>E5/D5</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>H5/F5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -827,10 +922,10 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>3.741</v>
+        <v>3.7410000000000001</v>
       </c>
       <c r="E6">
-        <v>3.741</v>
+        <v>3.7410000000000001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -841,8 +936,16 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6">
+        <f>E6/D6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" t="e">
+        <f>H6/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -862,13 +965,21 @@
         <v>-8.27945538048656</v>
       </c>
       <c r="G7">
-        <v>-4.034822310178636</v>
+        <v>-4.0348223101786358</v>
       </c>
       <c r="H7">
         <v>-8.27945538048656</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7">
+        <f>E7/D7</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>H7/F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -893,8 +1004,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8">
+        <f>E8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="e">
+        <f>H8/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -905,22 +1024,30 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E9">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F9">
         <v>-19.12068860791457</v>
       </c>
       <c r="G9">
-        <v>-19.2748877095913</v>
+        <v>-19.274887709591301</v>
       </c>
       <c r="H9">
         <v>-19.12068860791457</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9">
+        <f>E9/D9</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>H9/F9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -931,22 +1058,30 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>1.441</v>
+        <v>1.4410000000000001</v>
       </c>
       <c r="E10">
-        <v>1.441</v>
+        <v>1.4410000000000001</v>
       </c>
       <c r="F10">
-        <v>0.7786444931912891</v>
+        <v>0.77864449319128914</v>
       </c>
       <c r="G10">
-        <v>0.5403500993693887</v>
+        <v>0.54035009936938871</v>
       </c>
       <c r="H10">
-        <v>0.7786444931912891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.77864449319128914</v>
+      </c>
+      <c r="K10">
+        <f>E10/D10</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>H10/F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -957,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>1.623160387179816</v>
+        <v>1.6231603871798159</v>
       </c>
       <c r="E11">
         <v>2.630861250352118</v>
@@ -966,13 +1101,21 @@
         <v>-8.27945538048656</v>
       </c>
       <c r="G11">
-        <v>-5.100823951767219</v>
+        <v>-5.1008239517672189</v>
       </c>
       <c r="H11">
         <v>-13.41956007957234</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11">
+        <f>E11/D11</f>
+        <v>1.6208264267236998</v>
+      </c>
+      <c r="L11">
+        <f>H11/F11</f>
+        <v>1.6208264267236996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -983,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>2.019</v>
+        <v>2.0190000000000001</v>
       </c>
       <c r="E12">
-        <v>2.019</v>
+        <v>2.0190000000000001</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -997,8 +1140,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <f>E12/D12</f>
+        <v>1</v>
+      </c>
+      <c r="L12" t="e">
+        <f>H12/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1009,22 +1160,30 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>1.635870075118938</v>
+        <v>1.6358700751189379</v>
       </c>
       <c r="E13">
-        <v>2.643779816418004</v>
+        <v>2.6437798164180042</v>
       </c>
       <c r="F13">
-        <v>-8.503585277961301</v>
+        <v>-8.5035852779613013</v>
       </c>
       <c r="G13">
         <v>-5.198203333686533</v>
       </c>
       <c r="H13">
-        <v>-13.74290505523724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-13.742905055237239</v>
+      </c>
+      <c r="K13">
+        <f>E13/D13</f>
+        <v>1.6161306797092581</v>
+      </c>
+      <c r="L13">
+        <f>H13/F13</f>
+        <v>1.6161306797092583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1035,22 +1194,30 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>1.793</v>
+        <v>1.7929999999999999</v>
       </c>
       <c r="E14">
-        <v>1.793</v>
+        <v>1.7929999999999999</v>
       </c>
       <c r="F14">
-        <v>0.6065413487614942</v>
+        <v>0.60654134876149424</v>
       </c>
       <c r="G14">
-        <v>0.3382829608262656</v>
+        <v>0.33828296082626558</v>
       </c>
       <c r="H14">
-        <v>0.6065413487614942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.60654134876149424</v>
+      </c>
+      <c r="K14">
+        <f>E14/D14</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>H14/F14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1064,19 +1231,27 @@
         <v>1.683254117953241</v>
       </c>
       <c r="E15">
-        <v>2.690786510675044</v>
+        <v>2.6907865106750442</v>
       </c>
       <c r="F15">
-        <v>0.2283631564694188</v>
+        <v>0.22836315646941879</v>
       </c>
       <c r="G15">
         <v>0.1356676654069903</v>
       </c>
       <c r="H15">
-        <v>0.3650527240119048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.36505272401190481</v>
+      </c>
+      <c r="K15">
+        <f>E15/D15</f>
+        <v>1.5985622622132158</v>
+      </c>
+      <c r="L15">
+        <f>H15/F15</f>
+        <v>1.5985622622132163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1087,22 +1262,30 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>1.685929561323208</v>
+        <v>1.6859295613232079</v>
       </c>
       <c r="E16">
-        <v>2.693386519191672</v>
+        <v>2.6933865191916722</v>
       </c>
       <c r="F16">
-        <v>0.2283631564694275</v>
+        <v>0.22836315646942751</v>
       </c>
       <c r="G16">
-        <v>0.1354523710291881</v>
+        <v>0.13545237102918811</v>
       </c>
       <c r="H16">
-        <v>0.3648255901225637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.36482559012256371</v>
+      </c>
+      <c r="K16">
+        <f>E16/D16</f>
+        <v>1.5975676451617338</v>
+      </c>
+      <c r="L16">
+        <f>H16/F16</f>
+        <v>1.5975676451617331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1113,22 +1296,30 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="E17">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="F17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="G17">
-        <v>7.572202166064982</v>
+        <v>7.5722021660649821</v>
       </c>
       <c r="H17">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>8.39</v>
+      </c>
+      <c r="K17">
+        <f>E17/D17</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>H17/F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1153,8 +1344,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <f>E18/D18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" t="e">
+        <f>H18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1165,22 +1364,30 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E19">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="F19">
-        <v>-8.503585277961301</v>
+        <v>-8.5035852779613013</v>
       </c>
       <c r="G19">
-        <v>-9.036753749161852</v>
+        <v>-9.0367537491618517</v>
       </c>
       <c r="H19">
-        <v>-8.503585277961301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>-8.5035852779613013</v>
+      </c>
+      <c r="K19">
+        <f>E19/D19</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>H19/F19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1191,10 +1398,10 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>2.106</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="E20">
-        <v>2.106</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1205,8 +1412,16 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20">
+        <f>E20/D20</f>
+        <v>1</v>
+      </c>
+      <c r="L20" t="e">
+        <f>H20/F20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1217,10 +1432,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1.499</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="E21">
-        <v>1.499</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1231,8 +1446,16 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21">
+        <f>E21/D21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" t="e">
+        <f>H21/F21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1243,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="D22">
-        <v>2.361</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="E22">
         <v>1.54385769696417</v>
@@ -1257,8 +1480,16 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22">
+        <f>E22/D22</f>
+        <v>0.65389991400430747</v>
+      </c>
+      <c r="L22" t="e">
+        <f>H22/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1275,16 +1506,24 @@
         <v>2.089</v>
       </c>
       <c r="F23">
-        <v>-5.452052576810869</v>
+        <v>-5.4520525768108694</v>
       </c>
       <c r="G23">
         <v>-2.609886346008075</v>
       </c>
       <c r="H23">
-        <v>-5.452052576810869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-5.4520525768108694</v>
+      </c>
+      <c r="K23">
+        <f>E23/D23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>H23/F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1301,16 +1540,24 @@
         <v>1.165</v>
       </c>
       <c r="F24">
-        <v>8.503585277961301</v>
+        <v>8.5035852779613013</v>
       </c>
       <c r="G24">
-        <v>7.29921483086807</v>
+        <v>7.2992148308680704</v>
       </c>
       <c r="H24">
-        <v>8.503585277961301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>8.5035852779613013</v>
+      </c>
+      <c r="K24">
+        <f>E24/D24</f>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>H24/F24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1327,16 +1574,24 @@
         <v>1.181</v>
       </c>
       <c r="F25">
-        <v>8.404273021945482</v>
+        <v>8.4042730219454818</v>
       </c>
       <c r="G25">
-        <v>7.116234565576191</v>
+        <v>7.1162345655761907</v>
       </c>
       <c r="H25">
-        <v>8.404273021945482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>8.4042730219454818</v>
+      </c>
+      <c r="K25">
+        <f>E25/D25</f>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>H25/F25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1353,16 +1608,24 @@
         <v>4.492</v>
       </c>
       <c r="F26">
-        <v>0.2116629497353107</v>
+        <v>0.21166294973531069</v>
       </c>
       <c r="G26">
-        <v>0.04711997990545652</v>
+        <v>4.7119979905456522E-2</v>
       </c>
       <c r="H26">
-        <v>0.2116629497353107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.21166294973531069</v>
+      </c>
+      <c r="K26">
+        <f>E26/D26</f>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f>H26/F26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1387,8 +1650,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27">
+        <f>E27/D27</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="e">
+        <f>H27/F27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1405,16 +1676,24 @@
         <v>1.004</v>
       </c>
       <c r="F28">
-        <v>0.3781781922920832</v>
+        <v>0.37817819229208322</v>
       </c>
       <c r="G28">
-        <v>0.3766715062670151</v>
+        <v>0.37667150626701512</v>
       </c>
       <c r="H28">
-        <v>0.3781781922920832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.37817819229208322</v>
+      </c>
+      <c r="K28">
+        <f>E28/D28</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>H28/F28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1431,16 +1710,24 @@
         <v>1.46</v>
       </c>
       <c r="F29">
-        <v>-0.1521433282697421</v>
+        <v>-0.15214332826974211</v>
       </c>
       <c r="G29">
         <v>-0.1042077590888644</v>
       </c>
       <c r="H29">
-        <v>-0.1521433282697421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.15214332826974211</v>
+      </c>
+      <c r="K29">
+        <f>E29/D29</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>H29/F29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1457,16 +1744,24 @@
         <v>2.343</v>
       </c>
       <c r="F30">
-        <v>0.2283631564694188</v>
+        <v>0.22836315646941879</v>
       </c>
       <c r="G30">
-        <v>0.09746613592378098</v>
+        <v>9.7466135923780978E-2</v>
       </c>
       <c r="H30">
-        <v>0.2283631564694188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.22836315646941879</v>
+      </c>
+      <c r="K30">
+        <f>E30/D30</f>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>H30/F30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1477,22 +1772,30 @@
         <v>36</v>
       </c>
       <c r="D31">
-        <v>4.438</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="E31">
-        <v>4.438</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="F31">
-        <v>-0.1521433282697421</v>
+        <v>-0.15214332826974211</v>
       </c>
       <c r="G31">
-        <v>-0.03428195769935603</v>
+        <v>-3.4281957699356033E-2</v>
       </c>
       <c r="H31">
-        <v>-0.1521433282697421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.15214332826974211</v>
+      </c>
+      <c r="K31">
+        <f>E31/D31</f>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>H31/F31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1503,22 +1806,30 @@
         <v>37</v>
       </c>
       <c r="D32">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="E32">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F32">
         <v>-1.633230604363202E-16</v>
       </c>
       <c r="G32">
-        <v>-1.798712119342733E-16</v>
+        <v>-1.7987121193427329E-16</v>
       </c>
       <c r="H32">
         <v>-1.633230604363202E-16</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32">
+        <f>E32/D32</f>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>H32/F32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1538,13 +1849,21 @@
         <v>1.421085471520201E-14</v>
       </c>
       <c r="G33">
-        <v>7.15551596938671E-15</v>
+        <v>7.1555159693867102E-15</v>
       </c>
       <c r="H33">
-        <v>7.317032548735003E-15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>7.3170325487350032E-15</v>
+      </c>
+      <c r="K33">
+        <f>E33/D33</f>
+        <v>0.51489039156157401</v>
+      </c>
+      <c r="L33">
+        <f>H33/F33</f>
+        <v>0.51489039156157401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1555,10 +1874,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>2.344</v>
+        <v>2.3439999999999999</v>
       </c>
       <c r="E34">
-        <v>2.344</v>
+        <v>2.3439999999999999</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1569,8 +1888,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34">
+        <f>E34/D34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" t="e">
+        <f>H34/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1581,10 +1908,10 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>1.255</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="E35">
-        <v>1.255</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="F35">
         <v>19.12068860791457</v>
@@ -1595,8 +1922,16 @@
       <c r="H35">
         <v>19.12068860791457</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35">
+        <f>E35/D35</f>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f>H35/F35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1621,8 +1956,16 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36">
+        <f>E36/D36</f>
+        <v>1</v>
+      </c>
+      <c r="L36" t="e">
+        <f>H36/F36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1642,13 +1985,21 @@
         <v>-8.27945538048656</v>
       </c>
       <c r="G37">
-        <v>-8.181280020243637</v>
+        <v>-8.1812800202436371</v>
       </c>
       <c r="H37">
         <v>-8.27945538048656</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37">
+        <f>E37/D37</f>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f>H37/F37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1659,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="D38">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="E38">
-        <v>0.09215558717866472</v>
+        <v>9.2155587178664719E-2</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1673,8 +2024,16 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="K38">
+        <f>E38/D38</f>
+        <v>0.11377232985020334</v>
+      </c>
+      <c r="L38" t="e">
+        <f>H38/F38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1685,10 +2044,10 @@
         <v>44</v>
       </c>
       <c r="D39">
-        <v>1.305</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="E39">
-        <v>0.346095086216654</v>
+        <v>0.34609508621665402</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1699,8 +2058,16 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="K39">
+        <f>E39/D39</f>
+        <v>0.26520696261812571</v>
+      </c>
+      <c r="L39" t="e">
+        <f>H39/F39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1711,22 +2078,30 @@
         <v>45</v>
       </c>
       <c r="D40">
-        <v>1.497</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="E40">
-        <v>1.497</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="F40">
-        <v>-0.03786650170764726</v>
+        <v>-3.7866501707647257E-2</v>
       </c>
       <c r="G40">
-        <v>-0.02529492432040565</v>
+        <v>-2.529492432040565E-2</v>
       </c>
       <c r="H40">
-        <v>-0.03786650170764726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-3.7866501707647257E-2</v>
+      </c>
+      <c r="K40">
+        <f>E40/D40</f>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f>H40/F40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1737,22 +2112,30 @@
         <v>46</v>
       </c>
       <c r="D41">
-        <v>1.646</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="E41">
-        <v>1.646</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="F41">
-        <v>3.629194102456611</v>
+        <v>3.6291941024566108</v>
       </c>
       <c r="G41">
-        <v>2.204856684360031</v>
+        <v>2.2048566843600308</v>
       </c>
       <c r="H41">
-        <v>3.62919410245661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>3.6291941024566099</v>
+      </c>
+      <c r="K41">
+        <f>E41/D41</f>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f>H41/F41</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1763,22 +2146,30 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>1.193</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="E42">
-        <v>1.193</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="F42">
-        <v>-0.03786650170764731</v>
+        <v>-3.7866501707647313E-2</v>
       </c>
       <c r="G42">
-        <v>-0.03174057142300696</v>
+        <v>-3.1740571423006958E-2</v>
       </c>
       <c r="H42">
-        <v>-0.03786650170764731</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>-3.7866501707647313E-2</v>
+      </c>
+      <c r="K42">
+        <f>E42/D42</f>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f>H42/F42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1798,13 +2189,21 @@
         <v>-0.1142768265620947</v>
       </c>
       <c r="G43">
-        <v>-0.1255789302880161</v>
+        <v>-0.12557893028801609</v>
       </c>
       <c r="H43">
         <v>-0.1142768265620947</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="K43">
+        <f>E43/D43</f>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f>H43/F43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1824,13 +2223,21 @@
         <v>9.789458863898286</v>
       </c>
       <c r="G44">
-        <v>6.061584435850332</v>
+        <v>6.0615844358503317</v>
       </c>
       <c r="H44">
         <v>9.789458863898286</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="K44">
+        <f>E44/D44</f>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f>H44/F44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1847,16 +2254,24 @@
         <v>1.776</v>
       </c>
       <c r="F45">
-        <v>8.503585277961301</v>
+        <v>8.5035852779613013</v>
       </c>
       <c r="G45">
-        <v>4.788054773626858</v>
+        <v>4.7880547736268584</v>
       </c>
       <c r="H45">
-        <v>8.503585277961301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>8.5035852779613013</v>
+      </c>
+      <c r="K45">
+        <f>E45/D45</f>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f>H45/F45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1867,10 +2282,10 @@
         <v>51</v>
       </c>
       <c r="D46">
-        <v>2.313</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="E46">
-        <v>2.313</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1881,8 +2296,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46">
+        <f>E46/D46</f>
+        <v>1</v>
+      </c>
+      <c r="L46" t="e">
+        <f>H46/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1907,8 +2330,16 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47">
+        <f>E47/D47</f>
+        <v>1</v>
+      </c>
+      <c r="L47" t="e">
+        <f>H47/F47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1925,16 +2356,24 @@
         <v>1.917</v>
       </c>
       <c r="F48">
-        <v>-0.3781781922920832</v>
+        <v>-0.37817819229208322</v>
       </c>
       <c r="G48">
         <v>-0.1972760523172056</v>
       </c>
       <c r="H48">
-        <v>-0.3781781922920832</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.37817819229208322</v>
+      </c>
+      <c r="K48">
+        <f>E48/D48</f>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f>H48/F48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1945,10 +2384,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E49">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="F49">
         <v>8.27945538048656</v>
@@ -1959,8 +2398,16 @@
       <c r="H49">
         <v>8.27945538048656</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="K49">
+        <f>E49/D49</f>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f>H49/F49</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1971,22 +2418,30 @@
         <v>55</v>
       </c>
       <c r="D50">
-        <v>1.747</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="E50">
-        <v>1.747</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="F50">
         <v>17.80467421793529</v>
       </c>
       <c r="G50">
-        <v>10.19157081736422</v>
+        <v>10.191570817364219</v>
       </c>
       <c r="H50">
         <v>17.80467421793529</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50">
+        <f>E50/D50</f>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f>H50/F50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2011,8 +2466,16 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="K51">
+        <f>E51/D51</f>
+        <v>1</v>
+      </c>
+      <c r="L51" t="e">
+        <f>H51/F51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2037,8 +2500,16 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="K52">
+        <f>E52/D52</f>
+        <v>1</v>
+      </c>
+      <c r="L52" t="e">
+        <f>H52/F52</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2049,22 +2520,30 @@
         <v>58</v>
       </c>
       <c r="D53">
-        <v>1.638</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="E53">
-        <v>1.638</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F53">
         <v>-10</v>
       </c>
       <c r="G53">
-        <v>-6.105006105006106</v>
+        <v>-6.1050061050061064</v>
       </c>
       <c r="H53">
         <v>-10</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="K53">
+        <f>E53/D53</f>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f>H53/F53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2075,10 +2554,10 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>1.195</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="E54">
-        <v>1.195</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2089,8 +2568,16 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="K54">
+        <f>E54/D54</f>
+        <v>1</v>
+      </c>
+      <c r="L54" t="e">
+        <f>H54/F54</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2101,10 +2588,10 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>1.668</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="E55">
-        <v>1.668</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2115,8 +2602,16 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="K55">
+        <f>E55/D55</f>
+        <v>1</v>
+      </c>
+      <c r="L55" t="e">
+        <f>H55/F55</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2127,22 +2622,30 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>2.197</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="E56">
-        <v>2.197</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="F56">
-        <v>30.55421826758692</v>
+        <v>30.554218267586919</v>
       </c>
       <c r="G56">
         <v>13.90724545634361</v>
       </c>
       <c r="H56">
-        <v>30.55421826758692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>30.554218267586919</v>
+      </c>
+      <c r="K56">
+        <f>E56/D56</f>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f>H56/F56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2153,22 +2656,30 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>1.457</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="E57">
-        <v>1.457</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="F57">
-        <v>-7.115795981726739</v>
+        <v>-7.1157959817267393</v>
       </c>
       <c r="G57">
-        <v>-4.883868209833039</v>
+        <v>-4.8838682098330386</v>
       </c>
       <c r="H57">
-        <v>-7.115795981726739</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>-7.1157959817267393</v>
+      </c>
+      <c r="K57">
+        <f>E57/D57</f>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f>H57/F57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2193,8 +2704,16 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="K58">
+        <f>E58/D58</f>
+        <v>1</v>
+      </c>
+      <c r="L58" t="e">
+        <f>H58/F58</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2205,10 +2724,10 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="E59">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2219,8 +2738,16 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="K59">
+        <f>E59/D59</f>
+        <v>1</v>
+      </c>
+      <c r="L59" t="e">
+        <f>H59/F59</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2231,10 +2758,10 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="E60">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F60">
         <v>-1.154155732316704</v>
@@ -2245,8 +2772,16 @@
       <c r="H60">
         <v>-1.154155732316704</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="K60">
+        <f>E60/D60</f>
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f>H60/F60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2271,8 +2806,16 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="K61">
+        <f>E61/D61</f>
+        <v>1</v>
+      </c>
+      <c r="L61" t="e">
+        <f>H61/F61</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2289,16 +2832,24 @@
         <v>1.83</v>
       </c>
       <c r="F62">
-        <v>-0.7786444931912903</v>
+        <v>-0.77864449319129025</v>
       </c>
       <c r="G62">
-        <v>-0.4254887940936012</v>
+        <v>-0.42548879409360119</v>
       </c>
       <c r="H62">
-        <v>-0.7786444931912903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.77864449319129025</v>
+      </c>
+      <c r="K62">
+        <f>E62/D62</f>
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f>H62/F62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2323,8 +2874,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="K63">
+        <f>E63/D63</f>
+        <v>1</v>
+      </c>
+      <c r="L63" t="e">
+        <f>H63/F63</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2349,8 +2908,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64">
+        <f>E64/D64</f>
+        <v>1</v>
+      </c>
+      <c r="L64" t="e">
+        <f>H64/F64</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2370,13 +2937,21 @@
         <v>9.789458863898286</v>
       </c>
       <c r="G65">
-        <v>8.090461870990319</v>
+        <v>8.0904618709903193</v>
       </c>
       <c r="H65">
         <v>9.789458863898286</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="K65">
+        <f>E65/D65</f>
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <f>H65/F65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2401,8 +2976,16 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="K66">
+        <f>E66/D66</f>
+        <v>1</v>
+      </c>
+      <c r="L66" t="e">
+        <f>H66/F66</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2416,7 +2999,7 @@
         <v>1.464</v>
       </c>
       <c r="E67">
-        <v>0.4701688905403821</v>
+        <v>0.47016889054038208</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2427,8 +3010,16 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67">
+        <f>E67/D67</f>
+        <v>0.32115361375709162</v>
+      </c>
+      <c r="L67" t="e">
+        <f>H67/F67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2439,22 +3030,30 @@
         <v>73</v>
       </c>
       <c r="D68">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E68">
-        <v>0.2513489474622811</v>
+        <v>0.25134894746228109</v>
       </c>
       <c r="F68">
         <v>-17.80467421793529</v>
       </c>
       <c r="G68">
-        <v>-15.34885708442697</v>
+        <v>-15.348857084426969</v>
       </c>
       <c r="H68">
-        <v>-3.857919072919697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-3.8579190729196968</v>
+      </c>
+      <c r="K68">
+        <f>E68/D68</f>
+        <v>0.21668012712265614</v>
+      </c>
+      <c r="L68">
+        <f>H68/F68</f>
+        <v>0.21668012712265614</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2468,7 +3067,7 @@
         <v>1.645432207645535</v>
       </c>
       <c r="E69">
-        <v>2.653412402975691</v>
+        <v>2.6534124029756909</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2479,8 +3078,16 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="K69">
+        <f>E69/D69</f>
+        <v>1.6125929653294466</v>
+      </c>
+      <c r="L69" t="e">
+        <f>H69/F69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2505,8 +3112,16 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="K70">
+        <f>E70/D70</f>
+        <v>1</v>
+      </c>
+      <c r="L70" t="e">
+        <f>H70/F70</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2517,22 +3132,30 @@
         <v>76</v>
       </c>
       <c r="D71">
-        <v>1.699356825072298</v>
+        <v>1.6993568250722979</v>
       </c>
       <c r="E71">
         <v>2.706348239242788</v>
       </c>
       <c r="F71">
-        <v>2.735657995370771E-15</v>
+        <v>2.7356579953707709E-15</v>
       </c>
       <c r="G71">
         <v>1.609819641766163E-15</v>
       </c>
       <c r="H71">
-        <v>4.356732552992311E-15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>4.3567325529923108E-15</v>
+      </c>
+      <c r="K71">
+        <f>E71/D71</f>
+        <v>1.5925720833396178</v>
+      </c>
+      <c r="L71">
+        <f>H71/F71</f>
+        <v>1.5925720833396178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2543,10 +3166,10 @@
         <v>77</v>
       </c>
       <c r="D72">
-        <v>2.447</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="E72">
-        <v>2.447</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2557,8 +3180,16 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="K72">
+        <f>E72/D72</f>
+        <v>1</v>
+      </c>
+      <c r="L72" t="e">
+        <f>H72/F72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2569,22 +3200,30 @@
         <v>78</v>
       </c>
       <c r="D73">
-        <v>3.084</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="E73">
-        <v>2.774967120993112</v>
+        <v>2.7749671209931122</v>
       </c>
       <c r="F73">
-        <v>-3.392325650114964E-17</v>
+        <v>-3.3923256501149638E-17</v>
       </c>
       <c r="G73">
-        <v>-1.09997589173637E-17</v>
+        <v>-1.0999758917363701E-17</v>
       </c>
       <c r="H73">
-        <v>-3.052396933453504E-17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-3.0523969334535042E-17</v>
+      </c>
+      <c r="K73">
+        <f>E73/D73</f>
+        <v>0.8997947863142387</v>
+      </c>
+      <c r="L73">
+        <f>H73/F73</f>
+        <v>0.89979478631423859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2601,16 +3240,24 @@
         <v>1.59</v>
       </c>
       <c r="F74">
-        <v>19.4373363807186</v>
+        <v>19.437336380718602</v>
       </c>
       <c r="G74">
-        <v>12.22473986208717</v>
+        <v>12.224739862087169</v>
       </c>
       <c r="H74">
-        <v>19.4373363807186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19.437336380718602</v>
+      </c>
+      <c r="K74">
+        <f>E74/D74</f>
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <f>H74/F74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2621,22 +3268,30 @@
         <v>80</v>
       </c>
       <c r="D75">
-        <v>1.207</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="E75">
-        <v>1.207</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75">
-        <v>8.285004142502071</v>
+        <v>8.2850041425020713</v>
       </c>
       <c r="H75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="K75">
+        <f>E75/D75</f>
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <f>H75/F75</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2647,22 +3302,30 @@
         <v>81</v>
       </c>
       <c r="D76">
-        <v>2.364</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="E76">
-        <v>1.54839676292069</v>
+        <v>1.5483967629206901</v>
       </c>
       <c r="F76">
-        <v>0.05412221624731921</v>
+        <v>5.4122216247319208E-2</v>
       </c>
       <c r="G76">
-        <v>0.02289433851409442</v>
+        <v>2.289433851409442E-2</v>
       </c>
       <c r="H76">
-        <v>0.03544951964443428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>3.5449519644434282E-2</v>
+      </c>
+      <c r="K76">
+        <f>E76/D76</f>
+        <v>0.65499017044022423</v>
+      </c>
+      <c r="L76">
+        <f>H76/F76</f>
+        <v>0.65499017044022423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2687,8 +3350,16 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="K77">
+        <f>E77/D77</f>
+        <v>1</v>
+      </c>
+      <c r="L77" t="e">
+        <f>H77/F77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2705,16 +3376,24 @@
         <v>2.575472082057872</v>
       </c>
       <c r="F78">
-        <v>-1.100033516069384</v>
+        <v>-1.1000335160693839</v>
       </c>
       <c r="G78">
         <v>-0.7006259057826133</v>
       </c>
       <c r="H78">
-        <v>-1.80444246030963</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-1.8044424603096301</v>
+      </c>
+      <c r="K78">
+        <f>E78/D78</f>
+        <v>1.6403522564996236</v>
+      </c>
+      <c r="L78">
+        <f>H78/F78</f>
+        <v>1.6403522564996247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2725,10 +3404,10 @@
         <v>84</v>
       </c>
       <c r="D79">
-        <v>1.112</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="E79">
-        <v>1.112</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2739,8 +3418,16 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="K79">
+        <f>E79/D79</f>
+        <v>1</v>
+      </c>
+      <c r="L79" t="e">
+        <f>H79/F79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2754,7 +3441,7 @@
         <v>1.784</v>
       </c>
       <c r="E80">
-        <v>0.7832535472682997</v>
+        <v>0.78325354726829965</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2765,8 +3452,16 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="K80">
+        <f>E80/D80</f>
+        <v>0.43904346819971951</v>
+      </c>
+      <c r="L80" t="e">
+        <f>H80/F80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2777,10 +3472,10 @@
         <v>86</v>
       </c>
       <c r="D81">
-        <v>2.314</v>
+        <v>2.3140000000000001</v>
       </c>
       <c r="E81">
-        <v>2.314</v>
+        <v>2.3140000000000001</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2791,8 +3486,16 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="K81">
+        <f>E81/D81</f>
+        <v>1</v>
+      </c>
+      <c r="L81" t="e">
+        <f>H81/F81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2803,10 +3506,10 @@
         <v>87</v>
       </c>
       <c r="D82">
-        <v>1.364</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="E82">
-        <v>0.3896650821926873</v>
+        <v>0.38966508219268731</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2817,8 +3520,16 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="K82">
+        <f>E82/D82</f>
+        <v>0.285678212751237</v>
+      </c>
+      <c r="L82" t="e">
+        <f>H82/F82</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2835,16 +3546,24 @@
         <v>1.615</v>
       </c>
       <c r="F83">
-        <v>7.115795981726746</v>
+        <v>7.1157959817267464</v>
       </c>
       <c r="G83">
         <v>4.406065623360214</v>
       </c>
       <c r="H83">
-        <v>7.115795981726746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>7.1157959817267464</v>
+      </c>
+      <c r="K83">
+        <f>E83/D83</f>
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f>H83/F83</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2861,16 +3580,24 @@
         <v>1.01</v>
       </c>
       <c r="F84">
-        <v>0.2283631564694195</v>
+        <v>0.22836315646941949</v>
       </c>
       <c r="G84">
         <v>0.2261021351182371</v>
       </c>
       <c r="H84">
-        <v>0.2283631564694195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.22836315646941949</v>
+      </c>
+      <c r="K84">
+        <f>E84/D84</f>
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <f>H84/F84</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2881,10 +3608,10 @@
         <v>90</v>
       </c>
       <c r="D85">
-        <v>3.408</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="E85">
-        <v>3.408</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2895,8 +3622,16 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="K85">
+        <f>E85/D85</f>
+        <v>1</v>
+      </c>
+      <c r="L85" t="e">
+        <f>H85/F85</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2907,10 +3642,10 @@
         <v>91</v>
       </c>
       <c r="D86">
-        <v>1.394</v>
+        <v>1.3939999999999999</v>
       </c>
       <c r="E86">
-        <v>1.394</v>
+        <v>1.3939999999999999</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2921,8 +3656,16 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="K86">
+        <f>E86/D86</f>
+        <v>1</v>
+      </c>
+      <c r="L86" t="e">
+        <f>H86/F86</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2947,8 +3690,16 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="K87">
+        <f>E87/D87</f>
+        <v>1</v>
+      </c>
+      <c r="L87" t="e">
+        <f>H87/F87</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2959,10 +3710,10 @@
         <v>93</v>
       </c>
       <c r="D88">
-        <v>1.568</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="E88">
-        <v>1.568</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2973,8 +3724,16 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="K88">
+        <f>E88/D88</f>
+        <v>1</v>
+      </c>
+      <c r="L88" t="e">
+        <f>H88/F88</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2991,16 +3750,24 @@
         <v>1.724</v>
       </c>
       <c r="F89">
-        <v>-2.439073568501596E-15</v>
+        <v>-2.4390735685015959E-15</v>
       </c>
       <c r="G89">
-        <v>-1.41477585179907E-15</v>
+        <v>-1.4147758517990699E-15</v>
       </c>
       <c r="H89">
-        <v>-2.439073568501596E-15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-2.4390735685015959E-15</v>
+      </c>
+      <c r="K89">
+        <f>E89/D89</f>
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f>H89/F89</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3025,8 +3792,16 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="K90">
+        <f>E90/D90</f>
+        <v>1</v>
+      </c>
+      <c r="L90" t="e">
+        <f>H90/F90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3037,10 +3812,10 @@
         <v>96</v>
       </c>
       <c r="D91">
-        <v>2.366</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="E91">
-        <v>2.366</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3051,8 +3826,16 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="K91">
+        <f>E91/D91</f>
+        <v>1</v>
+      </c>
+      <c r="L91" t="e">
+        <f>H91/F91</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3063,22 +3846,30 @@
         <v>97</v>
       </c>
       <c r="D92">
-        <v>2.111</v>
+        <v>2.1110000000000002</v>
       </c>
       <c r="E92">
-        <v>1.185736653997716</v>
+        <v>1.1857366539977161</v>
       </c>
       <c r="F92">
-        <v>2.503231881203983E-14</v>
+        <v>2.5032318812039829E-14</v>
       </c>
       <c r="G92">
         <v>1.18580382814021E-14</v>
       </c>
       <c r="H92">
-        <v>1.406051063476654E-14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>1.4060510634766541E-14</v>
+      </c>
+      <c r="K92">
+        <f>E92/D92</f>
+        <v>0.56169429369858648</v>
+      </c>
+      <c r="L92">
+        <f>H92/F92</f>
+        <v>0.56169429369858603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3089,10 +3880,10 @@
         <v>98</v>
       </c>
       <c r="D93">
-        <v>2.329</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="E93">
-        <v>2.329</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3103,8 +3894,16 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="K93">
+        <f>E93/D93</f>
+        <v>1</v>
+      </c>
+      <c r="L93" t="e">
+        <f>H93/F93</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3115,22 +3914,30 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>1.402</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="E94">
-        <v>0.4192706623733716</v>
+        <v>0.41927066237337163</v>
       </c>
       <c r="F94">
         <v>1.154155732316704</v>
       </c>
       <c r="G94">
-        <v>0.8232209217665504</v>
+        <v>0.82322092176655037</v>
       </c>
       <c r="H94">
-        <v>0.3451523811486791</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.34515238114867908</v>
+      </c>
+      <c r="K94">
+        <f>E94/D94</f>
+        <v>0.29905182765575722</v>
+      </c>
+      <c r="L94">
+        <f>H94/F94</f>
+        <v>0.29905182765575711</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3155,8 +3962,16 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="K95">
+        <f>E95/D95</f>
+        <v>1</v>
+      </c>
+      <c r="L95" t="e">
+        <f>H95/F95</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3170,7 +3985,7 @@
         <v>1.446</v>
       </c>
       <c r="E96">
-        <v>0.4550609701449491</v>
+        <v>0.45506097014494912</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3181,8 +3996,16 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="K96">
+        <f>E96/D96</f>
+        <v>0.31470329885542819</v>
+      </c>
+      <c r="L96" t="e">
+        <f>H96/F96</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3205,10 +4028,18 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H97">
-        <v>20.11176470588235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K97">
+        <f>E97/D97</f>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L97">
+        <f>H97/F97</f>
+        <v>2.0111764705882349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3231,7 +4062,15 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H98">
-        <v>20.11176470588235</v>
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K98">
+        <f>E98/D98</f>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L98">
+        <f>H98/F98</f>
+        <v>2.0111764705882349</v>
       </c>
     </row>
   </sheetData>
